--- a/User Stories-Acceptance Criteria-Test Cases/Sprint 3 Test Cases - Code Avengers - Book Buddy.xlsx
+++ b/User Stories-Acceptance Criteria-Test Cases/Sprint 3 Test Cases - Code Avengers - Book Buddy.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -248,51 +248,6 @@
   </si>
   <si>
     <t>User will be able to add items to a shopping cart and it will persist in the database</t>
-  </si>
-  <si>
-    <t>TC - 012</t>
-  </si>
-  <si>
-    <t>US 1</t>
-  </si>
-  <si>
-    <t>Input Likes and Dislikes into the system</t>
-  </si>
-  <si>
-    <t>The user will be able to input their likes and dislikes into the system</t>
-  </si>
-  <si>
-    <t>-Created User</t>
-  </si>
-  <si>
-    <t>1. Go through onboarding process and enter books that the user likes
-2. Make sure they are sent to ML API to generate recommendations</t>
-  </si>
-  <si>
-    <t>User will be able to enter books they like or dislike to fine tune recommendations</t>
-  </si>
-  <si>
-    <t>IN PROGRESS</t>
-  </si>
-  <si>
-    <t>TC - 013</t>
-  </si>
-  <si>
-    <t>US 6</t>
-  </si>
-  <si>
-    <t>Receive recommendations for a new reader</t>
-  </si>
-  <si>
-    <t>A new reader should be able to generate recommendations based off genres only</t>
-  </si>
-  <si>
-    <t>1. Go through onboarding process
-2. Select new reader and complete genre survey
-3. Generate recommendations based off those answers</t>
-  </si>
-  <si>
-    <t>New reader will be able to receive recommendations based off genres alone</t>
   </si>
 </sst>
 </file>
@@ -887,57 +842,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="88.5" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" ht="84.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>78</v>
-      </c>
+    <row r="11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
@@ -1009,30 +932,10 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>